--- a/NformTester/NformTester/Keywordscripts/900.30.70_AlarmNotification.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.30.70_AlarmNotification.xlsx
@@ -1279,7 +1279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8037" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8041" uniqueCount="894">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4572,10 +4572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4783,7 +4783,7 @@
         <v>832</v>
       </c>
       <c r="B7" s="3">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -5605,24 +5605,22 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>861</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="14"/>
+      <c r="N36" s="15"/>
     </row>
     <row r="37" spans="3:14">
       <c r="C37" s="4">
@@ -5632,17 +5630,15 @@
         <v>846</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>867</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -5661,12 +5657,14 @@
         <v>226</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>867</v>
+      </c>
       <c r="I38" s="9"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -5682,10 +5680,10 @@
         <v>846</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>2</v>
@@ -5706,19 +5704,17 @@
         <v>846</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>867</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -5738,13 +5734,13 @@
         <v>236</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="I41" s="9"/>
-      <c r="J41" s="4"/>
+      <c r="J41" s="9"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -5761,12 +5757,14 @@
         <v>226</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>883</v>
+      </c>
       <c r="I42" s="9"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -5782,10 +5780,10 @@
         <v>846</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>2</v>
@@ -5806,17 +5804,15 @@
         <v>846</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>884</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -5829,16 +5825,20 @@
         <v>44</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>861</v>
-      </c>
-      <c r="F45" s="4">
-        <v>5</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="9"/>
+        <v>226</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>884</v>
+      </c>
       <c r="I45" s="9"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -5851,17 +5851,15 @@
         <v>45</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>861</v>
+      </c>
+      <c r="F46" s="4">
+        <v>5</v>
+      </c>
+      <c r="G46" s="4"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="4"/>
@@ -5878,25 +5876,21 @@
         <v>846</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="I47" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
-      <c r="N47" s="14" t="s">
-        <v>864</v>
-      </c>
+      <c r="N47" s="14"/>
     </row>
     <row r="48" spans="3:14">
       <c r="C48" s="4">
@@ -5909,12 +5903,14 @@
         <v>19</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H48" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>857</v>
+      </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -5924,119 +5920,117 @@
         <v>864</v>
       </c>
     </row>
-    <row r="49" spans="3:14" ht="15">
+    <row r="49" spans="3:14">
       <c r="C49" s="4">
         <v>48</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>885</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="D49" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H49" s="9"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="14"/>
+      <c r="N49" s="14" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="50" spans="3:14" ht="15">
       <c r="C50" s="4">
         <v>49</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="14"/>
     </row>
-    <row r="51" spans="3:14">
+    <row r="51" spans="3:14" ht="15">
       <c r="C51" s="4">
         <v>50</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>860</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>814</v>
-      </c>
+      <c r="D51" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="E51" s="9"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="9" t="s">
-        <v>874</v>
-      </c>
-      <c r="I51" s="9">
-        <v>1</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>875</v>
-      </c>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
-      <c r="N51" s="15" t="s">
-        <v>864</v>
-      </c>
+      <c r="N51" s="14"/>
     </row>
     <row r="52" spans="3:14">
       <c r="C52" s="4">
         <v>51</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="4"/>
+        <v>814</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="I52" s="9">
+        <v>1</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>875</v>
+      </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
-      <c r="N52" s="14"/>
+      <c r="N52" s="15" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="53" spans="3:14">
       <c r="C53" s="4">
         <v>52</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>892</v>
-      </c>
+        <v>861</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
-      <c r="N53" s="14"/>
+      <c r="N53" s="15"/>
     </row>
     <row r="54" spans="3:14">
       <c r="C54" s="4">
@@ -6046,10 +6040,10 @@
         <v>846</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>2</v>
@@ -6070,15 +6064,17 @@
         <v>846</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>892</v>
+      </c>
       <c r="I55" s="9"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -6091,26 +6087,20 @@
         <v>55</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>887</v>
+        <v>846</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>226</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>235</v>
+        <v>17</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>893</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>868</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>892</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
@@ -6121,22 +6111,20 @@
         <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>887</v>
+        <v>846</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>888</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H57" s="9"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
+      <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
@@ -6147,20 +6135,26 @@
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>846</v>
+        <v>887</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>226</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>892</v>
+      </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
@@ -6171,20 +6165,22 @@
         <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>846</v>
+        <v>887</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>888</v>
+      </c>
       <c r="I59" s="9"/>
-      <c r="J59" s="4"/>
+      <c r="J59" s="9"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
@@ -6195,26 +6191,20 @@
         <v>59</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>887</v>
+        <v>846</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>226</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>235</v>
+        <v>17</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>893</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>868</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>889</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
@@ -6228,10 +6218,10 @@
         <v>846</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>2</v>
@@ -6249,28 +6239,30 @@
         <v>61</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>846</v>
+        <v>887</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>114</v>
+        <v>235</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>889</v>
+      </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
-      <c r="N62" s="14" t="s">
-        <v>864</v>
-      </c>
+      <c r="N62" s="14"/>
     </row>
     <row r="63" spans="3:14">
       <c r="C63" s="4">
@@ -6280,101 +6272,103 @@
         <v>846</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H63" s="9"/>
-      <c r="I63" s="4"/>
+      <c r="I63" s="9"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
-      <c r="N63" s="14" t="s">
-        <v>864</v>
-      </c>
+      <c r="N63" s="14"/>
     </row>
-    <row r="64" spans="3:14" ht="15">
+    <row r="64" spans="3:14">
       <c r="C64" s="4">
         <v>63</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="D64" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
-      <c r="N64" s="14"/>
+      <c r="N64" s="14" t="s">
+        <v>864</v>
+      </c>
     </row>
-    <row r="65" spans="3:14" ht="15">
+    <row r="65" spans="3:14">
       <c r="C65" s="4">
         <v>64</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
+      <c r="D65" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
-      <c r="N65" s="14"/>
+      <c r="N65" s="14" t="s">
+        <v>864</v>
+      </c>
     </row>
-    <row r="66" spans="3:14">
+    <row r="66" spans="3:14" ht="15">
       <c r="C66" s="4">
         <v>65</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>860</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>814</v>
-      </c>
+      <c r="D66" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="E66" s="9"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="9" t="s">
-        <v>874</v>
-      </c>
-      <c r="I66" s="9">
-        <v>1</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>875</v>
-      </c>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
-      <c r="N66" s="15" t="s">
-        <v>864</v>
-      </c>
+      <c r="N66" s="14"/>
     </row>
-    <row r="67" spans="3:14">
+    <row r="67" spans="3:14" ht="15">
       <c r="C67" s="4">
         <v>66</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>860</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>861</v>
-      </c>
-      <c r="F67" s="4">
-        <v>2</v>
-      </c>
+      <c r="D67" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
@@ -6382,63 +6376,59 @@
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
-      <c r="N67" s="15" t="s">
-        <v>864</v>
-      </c>
+      <c r="N67" s="14"/>
     </row>
     <row r="68" spans="3:14">
       <c r="C68" s="4">
         <v>67</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="4"/>
+        <v>814</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="I68" s="9">
+        <v>1</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>875</v>
+      </c>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
-      <c r="N68" s="14"/>
+      <c r="N68" s="15" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="69" spans="3:14">
       <c r="C69" s="4">
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>865</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>882</v>
-      </c>
-      <c r="J69" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>861</v>
+      </c>
+      <c r="F69" s="4">
+        <v>2</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
-      <c r="N69" s="14"/>
+      <c r="N69" s="15" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="70" spans="3:14">
       <c r="C70" s="4">
@@ -6448,13 +6438,13 @@
         <v>846</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
@@ -6475,14 +6465,20 @@
         <v>226</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="J71" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
@@ -6493,24 +6489,24 @@
         <v>71</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>861</v>
-      </c>
-      <c r="F72" s="4">
-        <v>5</v>
-      </c>
-      <c r="G72" s="4"/>
+        <v>226</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
-      <c r="N72" s="15" t="s">
-        <v>864</v>
-      </c>
+      <c r="N72" s="14"/>
     </row>
     <row r="73" spans="3:14">
       <c r="C73" s="4">
@@ -6520,69 +6516,73 @@
         <v>846</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="I73" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
-      <c r="N73" s="14" t="s">
-        <v>864</v>
-      </c>
+      <c r="N73" s="14"/>
     </row>
     <row r="74" spans="3:14">
       <c r="C74" s="4">
         <v>73</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>861</v>
+      </c>
+      <c r="F74" s="4">
+        <v>5</v>
+      </c>
+      <c r="G74" s="4"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="4"/>
+      <c r="I74" s="9"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
-      <c r="N74" s="14" t="s">
+      <c r="N74" s="15" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="75" spans="3:14" ht="15">
+    <row r="75" spans="3:14">
       <c r="C75" s="4">
         <v>74</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="9"/>
+      <c r="D75" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>857</v>
+      </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
-      <c r="N75" s="17"/>
+      <c r="N75" s="14" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="76" spans="3:14">
       <c r="C76" s="4">
@@ -6595,7 +6595,7 @@
         <v>19</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>2</v>
@@ -6606,26 +6606,22 @@
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
-      <c r="N76" s="17"/>
+      <c r="N76" s="14" t="s">
+        <v>864</v>
+      </c>
     </row>
-    <row r="77" spans="3:14">
+    <row r="77" spans="3:14" ht="15">
       <c r="C77" s="4">
         <v>76</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D77" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
       <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
+      <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
@@ -6637,20 +6633,18 @@
         <v>77</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>870</v>
+        <v>846</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>871</v>
+        <v>19</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>633</v>
+        <v>22</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>857</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H78" s="9"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -6658,24 +6652,24 @@
       <c r="M78" s="4"/>
       <c r="N78" s="17"/>
     </row>
-    <row r="79" spans="3:14" ht="14.25">
+    <row r="79" spans="3:14">
       <c r="C79" s="4">
         <v>78</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>870</v>
+        <v>846</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>871</v>
+        <v>19</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H79" s="18"/>
-      <c r="I79" s="4"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
@@ -6689,16 +6683,18 @@
       <c r="D80" s="6" t="s">
         <v>870</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>640</v>
+      <c r="E80" s="9" t="s">
+        <v>871</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>257</v>
+        <v>633</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H80" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>857</v>
+      </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
@@ -6706,7 +6702,7 @@
       <c r="M80" s="4"/>
       <c r="N80" s="17"/>
     </row>
-    <row r="81" spans="3:14">
+    <row r="81" spans="3:14" ht="14.25">
       <c r="C81" s="4">
         <v>80</v>
       </c>
@@ -6717,22 +6713,70 @@
         <v>871</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="17"/>
     </row>
+    <row r="82" spans="3:14">
+      <c r="C82" s="4">
+        <v>81</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H82" s="9"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="17"/>
+    </row>
+    <row r="83" spans="3:14">
+      <c r="C83" s="4">
+        <v>82</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="17"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N81">
+  <conditionalFormatting sqref="N2:N83">
     <cfRule type="cellIs" dxfId="1" priority="117" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6741,16 +6785,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3 F6:F13 F15:F19 F73:F81 F68:F71 F21:F44 F46:F66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3 F6:F13 F15:F19 F75:F83 F70:F73 F37:F45 F21:F35 F47:F52 F54:F68">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G79:G81 G2:G77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G81:G83 G2:G79">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D76:D77 D51:D63 D3:D4 D7 D9:D14 D66:D74 D16:D32 D35:D48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D78:D79 D35:D49 D3:D4 D7 D9:D14 D68:D76 D16:D32 D52:D65">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E83">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/900.30.70_AlarmNotification.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.30.70_AlarmNotification.xlsx
@@ -3926,91 +3926,91 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>$Trap_GXT_Trap$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>;The goal of this test is to identify user could see the alarm detail information and Acknowledge/ Close the alarm.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Scenario 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Scenario 2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>;1. Select the alarm and click on the “Details…” button then add “Comments” in the space provided.2. Add the comments with greater than 0 characters and less than 1024 characters and click on the “OK” button.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>" "</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Scenario 3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>;1. Select the alarm and click on the “Details…” button then add “Incident” in the space provided.2. Add the comments with greater than 0 characters and less than 20 characters and click on the “OK” button.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"12345678901234567890a"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"12345678901234567890"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Scenario 4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>;1. Select the alarm and click on the “Close” button. 2. Select the alarm, click on “Details…” button then add select “close” under Alarm Management -&gt; Alarm Status.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestIncident</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>$SNMP_device_0$</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Trap_GXT_Trap$</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Running Range</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>;The goal of this test is to identify user could see the alarm detail information and Acknowledge/ Close the alarm.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Scenario 1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Scenario 2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>;1. Select the alarm and click on the “Details…” button then add “Comments” in the space provided.2. Add the comments with greater than 0 characters and less than 1024 characters and click on the “OK” button.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024 outof1024outof1024outof1024outof1024outof1024outof1024outof1024outof1024</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>" "</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Scenario 3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>;1. Select the alarm and click on the “Details…” button then add “Incident” in the space provided.2. Add the comments with greater than 0 characters and less than 20 characters and click on the “OK” button.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"12345678901234567890a"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"12345678901234567890"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Scenario 4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>;1. Select the alarm and click on the “Close” button. 2. Select the alarm, click on “Details…” button then add select “close” under Alarm Management -&gt; Alarm Status.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestIncident</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
+    <t>$Trap_GXT_Port$</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4078,6 +4078,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4198,7 +4199,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4209,8 +4210,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4261,10 +4265,12 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -4574,8 +4580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4739,7 +4745,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="4"/>
@@ -4789,7 +4795,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>632</v>
@@ -4801,11 +4807,11 @@
       <c r="H7" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>873</v>
+      <c r="I7" s="20" t="s">
+        <v>891</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>892</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>854</v>
@@ -4822,7 +4828,7 @@
     </row>
     <row r="8" spans="1:14" ht="15">
       <c r="A8" s="2" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4">
@@ -5033,7 +5039,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="4"/>
@@ -5065,13 +5071,13 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="9" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="I16" s="9">
         <v>1</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -5097,13 +5103,13 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="9" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="I17" s="9">
         <v>1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -5129,13 +5135,13 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="9" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="I18" s="9">
         <v>1</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -5161,13 +5167,13 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="9" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="I19" s="9">
         <v>1</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -5539,7 +5545,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="4"/>
@@ -5559,7 +5565,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="4"/>
@@ -5585,13 +5591,13 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="9" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="I35" s="9">
         <v>1</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -5763,7 +5769,7 @@
         <v>4</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="4"/>
@@ -5837,7 +5843,7 @@
         <v>4</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="4"/>
@@ -5951,7 +5957,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="4"/>
@@ -5969,7 +5975,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="4"/>
@@ -5995,13 +6001,13 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="9" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="I52" s="9">
         <v>1</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -6073,7 +6079,7 @@
         <v>4</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="4"/>
@@ -6135,7 +6141,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>226</v>
@@ -6147,13 +6153,13 @@
         <v>7</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>868</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -6165,7 +6171,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>226</v>
@@ -6177,7 +6183,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -6239,7 +6245,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>226</v>
@@ -6251,13 +6257,13 @@
         <v>7</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>868</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -6347,7 +6353,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="4"/>
@@ -6365,7 +6371,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="4"/>
@@ -6391,13 +6397,13 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="9" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="I68" s="9">
         <v>1</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -6474,7 +6480,7 @@
         <v>865</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="J71" s="4" t="b">
         <v>1</v>
